--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Sema3g-Nrp2.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Sema3g-Nrp2.xlsx
@@ -540,16 +540,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>11.42569233333333</v>
+        <v>8.634423333333332</v>
       </c>
       <c r="H2">
-        <v>34.277077</v>
+        <v>25.90327</v>
       </c>
       <c r="I2">
-        <v>0.9287201125191051</v>
+        <v>0.8921355692341975</v>
       </c>
       <c r="J2">
-        <v>0.9504172085657416</v>
+        <v>0.9242739139243521</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>44.13164066666667</v>
+        <v>36.48539666666667</v>
       </c>
       <c r="N2">
-        <v>132.394922</v>
+        <v>109.45619</v>
       </c>
       <c r="O2">
-        <v>0.4415399811720331</v>
+        <v>0.4260639713374229</v>
       </c>
       <c r="P2">
-        <v>0.4562856844211927</v>
+        <v>0.4324607845540777</v>
       </c>
       <c r="Q2">
-        <v>504.2345484225549</v>
+        <v>315.0303603045888</v>
       </c>
       <c r="R2">
-        <v>4538.110935802994</v>
+        <v>2835.2732427413</v>
       </c>
       <c r="S2">
-        <v>0.4100670609957742</v>
+        <v>0.3801068235992945</v>
       </c>
       <c r="T2">
-        <v>0.4336617664960989</v>
+        <v>0.3997122219585934</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>11.42569233333333</v>
+        <v>8.634423333333332</v>
       </c>
       <c r="H3">
-        <v>34.277077</v>
+        <v>25.90327</v>
       </c>
       <c r="I3">
-        <v>0.9287201125191051</v>
+        <v>0.8921355692341975</v>
       </c>
       <c r="J3">
-        <v>0.9504172085657416</v>
+        <v>0.9242739139243521</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>44.79778</v>
       </c>
       <c r="O3">
-        <v>0.1494015830739255</v>
+        <v>0.1743777127077069</v>
       </c>
       <c r="P3">
-        <v>0.1543910098595022</v>
+        <v>0.1769957741547643</v>
       </c>
       <c r="Q3">
-        <v>170.6152171654511</v>
+        <v>128.9343323045111</v>
       </c>
       <c r="R3">
-        <v>1535.53695448906</v>
+        <v>1160.4089907406</v>
       </c>
       <c r="S3">
-        <v>0.1387522550429485</v>
+        <v>0.1555685599882474</v>
       </c>
       <c r="T3">
-        <v>0.1467358726183139</v>
+        <v>0.1635925769260947</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,16 +664,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>11.42569233333333</v>
+        <v>8.634423333333332</v>
       </c>
       <c r="H4">
-        <v>34.277077</v>
+        <v>25.90327</v>
       </c>
       <c r="I4">
-        <v>0.9287201125191051</v>
+        <v>0.8921355692341975</v>
       </c>
       <c r="J4">
-        <v>0.9504172085657416</v>
+        <v>0.9242739139243521</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>13.61024133333333</v>
+        <v>9.680823666666667</v>
       </c>
       <c r="N4">
-        <v>40.830724</v>
+        <v>29.042471</v>
       </c>
       <c r="O4">
-        <v>0.1361713639304118</v>
+        <v>0.1130493445068016</v>
       </c>
       <c r="P4">
-        <v>0.1407189532975654</v>
+        <v>0.1147466378470605</v>
       </c>
       <c r="Q4">
-        <v>155.5064300570831</v>
+        <v>83.58832975335221</v>
       </c>
       <c r="R4">
-        <v>1399.557870513748</v>
+        <v>752.2949677801699</v>
       </c>
       <c r="S4">
-        <v>0.126465084431332</v>
+        <v>0.1008553413131284</v>
       </c>
       <c r="T4">
-        <v>0.1337417147853651</v>
+        <v>0.1060573240725628</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,16 +726,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>11.42569233333333</v>
+        <v>8.634423333333332</v>
       </c>
       <c r="H5">
-        <v>34.277077</v>
+        <v>25.90327</v>
       </c>
       <c r="I5">
-        <v>0.9287201125191051</v>
+        <v>0.8921355692341975</v>
       </c>
       <c r="J5">
-        <v>0.9504172085657416</v>
+        <v>0.9242739139243521</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>9.690137500000001</v>
+        <v>3.79999</v>
       </c>
       <c r="N5">
-        <v>19.380275</v>
+        <v>7.59998</v>
       </c>
       <c r="O5">
-        <v>0.09695046603005844</v>
+        <v>0.04437498227672168</v>
       </c>
       <c r="P5">
-        <v>0.06679215417828435</v>
+        <v>0.0300274777826206</v>
       </c>
       <c r="Q5">
-        <v>110.7165297426958</v>
+        <v>32.81072232243333</v>
       </c>
       <c r="R5">
-        <v>664.299178456175</v>
+        <v>196.8643339346</v>
       </c>
       <c r="S5">
-        <v>0.09003984772021556</v>
+        <v>0.03958850007320052</v>
       </c>
       <c r="T5">
-        <v>0.06348041272821765</v>
+        <v>0.02775361441541927</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,16 +788,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>11.42569233333333</v>
+        <v>8.634423333333332</v>
       </c>
       <c r="H6">
-        <v>34.277077</v>
+        <v>25.90327</v>
       </c>
       <c r="I6">
-        <v>0.9287201125191051</v>
+        <v>0.8921355692341975</v>
       </c>
       <c r="J6">
-        <v>0.9504172085657416</v>
+        <v>0.9242739139243521</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>17.584752</v>
+        <v>20.734808</v>
       </c>
       <c r="N6">
-        <v>52.754256</v>
+        <v>62.204424</v>
       </c>
       <c r="O6">
-        <v>0.1759366057935712</v>
+        <v>0.242133989171347</v>
       </c>
       <c r="P6">
-        <v>0.1818121982434553</v>
+        <v>0.245769325661477</v>
       </c>
       <c r="Q6">
-        <v>200.9179661099679</v>
+        <v>179.0331100073867</v>
       </c>
       <c r="R6">
-        <v>1808.261694989712</v>
+        <v>1611.29799006648</v>
       </c>
       <c r="S6">
-        <v>0.1633958643288349</v>
+        <v>0.2160163442603267</v>
       </c>
       <c r="T6">
-        <v>0.1727974419377461</v>
+        <v>0.227158176551682</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -856,10 +856,10 @@
         <v>0.103077</v>
       </c>
       <c r="I7">
-        <v>0.00279281932465046</v>
+        <v>0.003550079123985249</v>
       </c>
       <c r="J7">
-        <v>0.00285806618246156</v>
+        <v>0.003677967385028239</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>44.13164066666667</v>
+        <v>36.48539666666667</v>
       </c>
       <c r="N7">
-        <v>132.394922</v>
+        <v>109.45619</v>
       </c>
       <c r="O7">
-        <v>0.4415399811720331</v>
+        <v>0.4260639713374229</v>
       </c>
       <c r="P7">
-        <v>0.4562856844211927</v>
+        <v>0.4324607845540777</v>
       </c>
       <c r="Q7">
-        <v>1.516319041666</v>
+        <v>1.25360174407</v>
       </c>
       <c r="R7">
-        <v>13.646871374994</v>
+        <v>11.28241569663</v>
       </c>
       <c r="S7">
-        <v>0.001233141392023054</v>
+        <v>0.001512560810127234</v>
       </c>
       <c r="T7">
-        <v>0.001304094684185539</v>
+        <v>0.001590576660893622</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -918,10 +918,10 @@
         <v>0.103077</v>
       </c>
       <c r="I8">
-        <v>0.00279281932465046</v>
+        <v>0.003550079123985249</v>
       </c>
       <c r="J8">
-        <v>0.00285806618246156</v>
+        <v>0.003677967385028239</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,10 +936,10 @@
         <v>44.79778</v>
       </c>
       <c r="O8">
-        <v>0.1494015830739255</v>
+        <v>0.1743777127077069</v>
       </c>
       <c r="P8">
-        <v>0.1543910098595022</v>
+        <v>0.1769957741547643</v>
       </c>
       <c r="Q8">
         <v>0.5130689743400001</v>
@@ -948,10 +948,10 @@
         <v>4.61762076906</v>
       </c>
       <c r="S8">
-        <v>0.0004172516283422301</v>
+        <v>0.0006190546775719273</v>
       </c>
       <c r="T8">
-        <v>0.0004412597241555325</v>
+        <v>0.0006509846846290473</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -980,10 +980,10 @@
         <v>0.103077</v>
       </c>
       <c r="I9">
-        <v>0.00279281932465046</v>
+        <v>0.003550079123985249</v>
       </c>
       <c r="J9">
-        <v>0.00285806618246156</v>
+        <v>0.003677967385028239</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>13.61024133333333</v>
+        <v>9.680823666666667</v>
       </c>
       <c r="N9">
-        <v>40.830724</v>
+        <v>29.042471</v>
       </c>
       <c r="O9">
-        <v>0.1361713639304118</v>
+        <v>0.1130493445068016</v>
       </c>
       <c r="P9">
-        <v>0.1407189532975654</v>
+        <v>0.1147466378470605</v>
       </c>
       <c r="Q9">
-        <v>0.467634281972</v>
+        <v>0.332623420363</v>
       </c>
       <c r="R9">
-        <v>4.208708537748</v>
+        <v>2.993610783267</v>
       </c>
       <c r="S9">
-        <v>0.0003803020166488646</v>
+        <v>0.0004013341179138129</v>
       </c>
       <c r="T9">
-        <v>0.0004021840816511594</v>
+        <v>0.0004220343915431356</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1042,10 +1042,10 @@
         <v>0.103077</v>
       </c>
       <c r="I10">
-        <v>0.00279281932465046</v>
+        <v>0.003550079123985249</v>
       </c>
       <c r="J10">
-        <v>0.00285806618246156</v>
+        <v>0.003677967385028239</v>
       </c>
       <c r="K10">
         <v>2</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>9.690137500000001</v>
+        <v>3.79999</v>
       </c>
       <c r="N10">
-        <v>19.380275</v>
+        <v>7.59998</v>
       </c>
       <c r="O10">
-        <v>0.09695046603005844</v>
+        <v>0.04437498227672168</v>
       </c>
       <c r="P10">
-        <v>0.06679215417828435</v>
+        <v>0.0300274777826206</v>
       </c>
       <c r="Q10">
-        <v>0.3329434343625</v>
+        <v>0.13056385641</v>
       </c>
       <c r="R10">
-        <v>1.997660606175</v>
+        <v>0.7833831384600001</v>
       </c>
       <c r="S10">
-        <v>0.0002707651350626152</v>
+        <v>0.000157534698207805</v>
       </c>
       <c r="T10">
-        <v>0.0001908963971107131</v>
+        <v>0.0001104400839391386</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1104,10 +1104,10 @@
         <v>0.103077</v>
       </c>
       <c r="I11">
-        <v>0.00279281932465046</v>
+        <v>0.003550079123985249</v>
       </c>
       <c r="J11">
-        <v>0.00285806618246156</v>
+        <v>0.003677967385028239</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>17.584752</v>
+        <v>20.734808</v>
       </c>
       <c r="N11">
-        <v>52.754256</v>
+        <v>62.204424</v>
       </c>
       <c r="O11">
-        <v>0.1759366057935712</v>
+        <v>0.242133989171347</v>
       </c>
       <c r="P11">
-        <v>0.1818121982434553</v>
+        <v>0.245769325661477</v>
       </c>
       <c r="Q11">
-        <v>0.604194493968</v>
+        <v>0.7124272680720001</v>
       </c>
       <c r="R11">
-        <v>5.437750445712</v>
+        <v>6.411845412648001</v>
       </c>
       <c r="S11">
-        <v>0.0004913591525736958</v>
+        <v>0.0008595948201644694</v>
       </c>
       <c r="T11">
-        <v>0.0005196312953586168</v>
+        <v>0.0009039315640232961</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1160,16 +1160,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>0.8425705</v>
+        <v>1.0095935</v>
       </c>
       <c r="H12">
-        <v>1.685141</v>
+        <v>2.019187</v>
       </c>
       <c r="I12">
-        <v>0.06848706815624436</v>
+        <v>0.1043143516418173</v>
       </c>
       <c r="J12">
-        <v>0.04672472525179678</v>
+        <v>0.07204811869061979</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>44.13164066666667</v>
+        <v>36.48539666666667</v>
       </c>
       <c r="N12">
-        <v>132.394922</v>
+        <v>109.45619</v>
       </c>
       <c r="O12">
-        <v>0.4415399811720331</v>
+        <v>0.4260639713374229</v>
       </c>
       <c r="P12">
-        <v>0.4562856844211927</v>
+        <v>0.4324607845540777</v>
       </c>
       <c r="Q12">
-        <v>37.18401854233367</v>
+        <v>36.83541931958833</v>
       </c>
       <c r="R12">
-        <v>223.104111254002</v>
+        <v>221.01251591753</v>
       </c>
       <c r="S12">
-        <v>0.03023977878423589</v>
+        <v>0.04444458692800111</v>
       </c>
       <c r="T12">
-        <v>0.02131982324090828</v>
+        <v>0.03115798593459074</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1222,16 +1222,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>0.8425705</v>
+        <v>1.0095935</v>
       </c>
       <c r="H13">
-        <v>1.685141</v>
+        <v>2.019187</v>
       </c>
       <c r="I13">
-        <v>0.06848706815624436</v>
+        <v>0.1043143516418173</v>
       </c>
       <c r="J13">
-        <v>0.04672472525179678</v>
+        <v>0.07204811869061979</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1246,22 +1246,22 @@
         <v>44.79778</v>
       </c>
       <c r="O13">
-        <v>0.1494015830739255</v>
+        <v>0.1743777127077069</v>
       </c>
       <c r="P13">
-        <v>0.1543910098595022</v>
+        <v>0.1769957741547643</v>
       </c>
       <c r="Q13">
-        <v>12.58176263116333</v>
+        <v>15.07584916747667</v>
       </c>
       <c r="R13">
-        <v>75.49057578698</v>
+        <v>90.45509500486001</v>
       </c>
       <c r="S13">
-        <v>0.01023207640263474</v>
+        <v>0.01819009804188753</v>
       </c>
       <c r="T13">
-        <v>0.007213877517032686</v>
+        <v>0.01275221254404059</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1284,16 +1284,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>0.8425705</v>
+        <v>1.0095935</v>
       </c>
       <c r="H14">
-        <v>1.685141</v>
+        <v>2.019187</v>
       </c>
       <c r="I14">
-        <v>0.06848706815624436</v>
+        <v>0.1043143516418173</v>
       </c>
       <c r="J14">
-        <v>0.04672472525179678</v>
+        <v>0.07204811869061979</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>13.61024133333333</v>
+        <v>9.680823666666667</v>
       </c>
       <c r="N14">
-        <v>40.830724</v>
+        <v>29.042471</v>
       </c>
       <c r="O14">
-        <v>0.1361713639304118</v>
+        <v>0.1130493445068016</v>
       </c>
       <c r="P14">
-        <v>0.1407189532975654</v>
+        <v>0.1147466378470605</v>
       </c>
       <c r="Q14">
-        <v>11.46758784534733</v>
+        <v>9.773696648512834</v>
       </c>
       <c r="R14">
-        <v>68.80552707208399</v>
+        <v>58.642179891077</v>
       </c>
       <c r="S14">
-        <v>0.009325977482430865</v>
+        <v>0.01179266907575946</v>
       </c>
       <c r="T14">
-        <v>0.006575054430549167</v>
+        <v>0.008267279382954582</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1346,16 +1346,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>0.8425705</v>
+        <v>1.0095935</v>
       </c>
       <c r="H15">
-        <v>1.685141</v>
+        <v>2.019187</v>
       </c>
       <c r="I15">
-        <v>0.06848706815624436</v>
+        <v>0.1043143516418173</v>
       </c>
       <c r="J15">
-        <v>0.04672472525179678</v>
+        <v>0.07204811869061979</v>
       </c>
       <c r="K15">
         <v>2</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>9.690137500000001</v>
+        <v>3.79999</v>
       </c>
       <c r="N15">
-        <v>19.380275</v>
+        <v>7.59998</v>
       </c>
       <c r="O15">
-        <v>0.09695046603005844</v>
+        <v>0.04437498227672168</v>
       </c>
       <c r="P15">
-        <v>0.06679215417828435</v>
+        <v>0.0300274777826206</v>
       </c>
       <c r="Q15">
-        <v>8.16462399844375</v>
+        <v>3.836445204065</v>
       </c>
       <c r="R15">
-        <v>32.658495993775</v>
+        <v>15.34578081626</v>
       </c>
       <c r="S15">
-        <v>0.006639853174780266</v>
+        <v>0.004628947505313358</v>
       </c>
       <c r="T15">
-        <v>0.003120845052955987</v>
+        <v>0.002163423283262198</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1408,16 +1408,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>0.8425705</v>
+        <v>1.0095935</v>
       </c>
       <c r="H16">
-        <v>1.685141</v>
+        <v>2.019187</v>
       </c>
       <c r="I16">
-        <v>0.06848706815624436</v>
+        <v>0.1043143516418173</v>
       </c>
       <c r="J16">
-        <v>0.04672472525179678</v>
+        <v>0.07204811869061979</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1426,28 +1426,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>17.584752</v>
+        <v>20.734808</v>
       </c>
       <c r="N16">
-        <v>52.754256</v>
+        <v>62.204424</v>
       </c>
       <c r="O16">
-        <v>0.1759366057935712</v>
+        <v>0.242133989171347</v>
       </c>
       <c r="P16">
-        <v>0.1818121982434553</v>
+        <v>0.245769325661477</v>
       </c>
       <c r="Q16">
-        <v>14.816393285016</v>
+        <v>20.933727380548</v>
       </c>
       <c r="R16">
-        <v>88.898359710096</v>
+        <v>125.602364283288</v>
       </c>
       <c r="S16">
-        <v>0.01204938231216261</v>
+        <v>0.02525805009085588</v>
       </c>
       <c r="T16">
-        <v>0.008495125010350661</v>
+        <v>0.01770721754577168</v>
       </c>
     </row>
   </sheetData>
